--- a/outputs/c/_salt_both.xlsx
+++ b/outputs/c/_salt_both.xlsx
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -768,19 +765,22 @@
     <t>activity 3</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>jar</t>
   </si>
   <si>
     <t>table</t>
   </si>
   <si>
-    <t>cpb</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1597,14 +1597,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1636,22 +1636,22 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="L1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" t="s">
         <v>247</v>
       </c>
-      <c r="M1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O1" t="s">
-        <v>249</v>
-      </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R1" t="s">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U1" t="s">
         <v>2</v>
@@ -1678,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="Z1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>212</v>
@@ -1701,28 +1701,28 @@
         <v>2142</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>239</v>
-      </c>
-      <c r="O2">
+      <c r="M2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1737,13 +1737,13 @@
         <v>2142</v>
       </c>
       <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" t="s">
-        <v>12</v>
-      </c>
       <c r="Z2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>169</v>
@@ -1766,37 +1766,37 @@
         <v>2378</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
       <c r="M3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>245</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>1456</v>
       </c>
       <c r="X3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
-        <v>100</v>
-      </c>
       <c r="Z3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1840,37 +1840,37 @@
         <v>188</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1885,13 +1885,13 @@
         <v>188</v>
       </c>
       <c r="X4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" t="s">
-        <v>23</v>
-      </c>
       <c r="Z4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>228</v>
@@ -1914,37 +1914,37 @@
         <v>1828</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>241</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>1828</v>
       </c>
       <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" t="s">
-        <v>25</v>
-      </c>
       <c r="Z5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1988,40 +1988,40 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>241</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
       </c>
       <c r="R6">
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -2033,13 +2033,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" t="s">
-        <v>27</v>
-      </c>
       <c r="Z6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>65</v>
@@ -2062,37 +2062,37 @@
         <v>574</v>
       </c>
       <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>238</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>239</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
       </c>
       <c r="R7">
         <v>8</v>
       </c>
       <c r="S7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -2107,13 +2107,13 @@
         <v>574</v>
       </c>
       <c r="X7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" t="s">
-        <v>29</v>
-      </c>
       <c r="Z7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>171</v>
@@ -2136,37 +2136,37 @@
         <v>1230</v>
       </c>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8">
+      <c r="M8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>9</v>
       </c>
       <c r="S8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U8">
         <v>171</v>
@@ -2178,13 +2178,13 @@
         <v>1230</v>
       </c>
       <c r="X8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" t="s">
-        <v>31</v>
-      </c>
       <c r="Z8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -2192,25 +2192,25 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>239</v>
-      </c>
-      <c r="O9">
+      <c r="M9" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>9</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2225,13 +2225,13 @@
         <v>1400</v>
       </c>
       <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" t="s">
-        <v>108</v>
-      </c>
       <c r="Z9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>140</v>
@@ -2254,37 +2254,37 @@
         <v>1086</v>
       </c>
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>240</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>241</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
       </c>
       <c r="R10">
         <v>10</v>
       </c>
       <c r="S10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>916</v>
       </c>
       <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" t="s">
-        <v>115</v>
-      </c>
       <c r="Z10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -2328,28 +2328,28 @@
         <v>312</v>
       </c>
       <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
       <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" t="s">
-        <v>239</v>
-      </c>
-      <c r="O11">
+      <c r="M11" t="s">
+        <v>238</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="R11">
         <v>11</v>
       </c>
       <c r="S11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2364,13 +2364,13 @@
         <v>312</v>
       </c>
       <c r="X11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" t="s">
-        <v>35</v>
-      </c>
       <c r="Z11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>310</v>
@@ -2393,37 +2393,37 @@
         <v>3336</v>
       </c>
       <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
       <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="R12" s="1">
         <v>12</v>
       </c>
       <c r="S12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U12">
         <v>222</v>
@@ -2435,13 +2435,13 @@
         <v>2486</v>
       </c>
       <c r="X12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" t="s">
-        <v>117</v>
-      </c>
       <c r="Z12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2449,25 +2449,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="R13" s="1">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>2684</v>
       </c>
       <c r="X13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" t="s">
         <v>118</v>
       </c>
-      <c r="Y13" t="s">
-        <v>119</v>
-      </c>
       <c r="Z13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>352</v>
@@ -2511,37 +2511,37 @@
         <v>2124</v>
       </c>
       <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>19</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
+        <v>240</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2556,13 +2556,13 @@
         <v>1248</v>
       </c>
       <c r="X14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" t="s">
         <v>122</v>
       </c>
-      <c r="Y14" t="s">
-        <v>123</v>
-      </c>
       <c r="Z14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>145</v>
@@ -2585,31 +2585,31 @@
         <v>1214</v>
       </c>
       <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="N15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O15" t="s">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2624,13 +2624,13 @@
         <v>1214</v>
       </c>
       <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
         <v>40</v>
       </c>
-      <c r="Y15" t="s">
-        <v>41</v>
-      </c>
       <c r="Z15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>265</v>
@@ -2653,40 +2653,40 @@
         <v>1266</v>
       </c>
       <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" t="s">
         <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" t="s">
-        <v>239</v>
-      </c>
-      <c r="O16" t="s">
-        <v>250</v>
       </c>
       <c r="R16" s="1">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U16">
         <v>201</v>
@@ -2698,13 +2698,13 @@
         <v>970</v>
       </c>
       <c r="X16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y16" t="s">
         <v>124</v>
       </c>
-      <c r="Y16" t="s">
-        <v>125</v>
-      </c>
       <c r="Z16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2712,31 +2712,31 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>19</v>
       </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17">
+      <c r="M17" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2751,13 +2751,13 @@
         <v>1266</v>
       </c>
       <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17" t="s">
-        <v>43</v>
-      </c>
       <c r="Z17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -2780,34 +2780,34 @@
         <v>150</v>
       </c>
       <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" t="s">
-        <v>239</v>
-      </c>
-      <c r="O18">
+      <c r="M18" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="R18">
         <v>16</v>
       </c>
       <c r="S18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>106</v>
       </c>
       <c r="X18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y18" t="s">
         <v>128</v>
       </c>
-      <c r="Y18" t="s">
-        <v>129</v>
-      </c>
       <c r="Z18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2839,7 +2839,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>170</v>
@@ -2851,28 +2851,28 @@
         <v>1138</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" t="s">
-        <v>239</v>
-      </c>
-      <c r="O19">
+      <c r="M19" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="R19">
         <v>17</v>
       </c>
       <c r="S19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2887,13 +2887,13 @@
         <v>1584</v>
       </c>
       <c r="X19" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" t="s">
         <v>143</v>
       </c>
-      <c r="Y19" t="s">
-        <v>144</v>
-      </c>
       <c r="Z19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>234</v>
@@ -2916,37 +2916,37 @@
         <v>2632</v>
       </c>
       <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
         <v>48</v>
       </c>
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
         <v>19</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
+        <v>239</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>240</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
       </c>
       <c r="R20">
         <v>17</v>
       </c>
       <c r="S20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U20">
         <v>513</v>
@@ -2958,13 +2958,13 @@
         <v>4486</v>
       </c>
       <c r="X20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y20" t="s">
         <v>145</v>
       </c>
-      <c r="Y20" t="s">
-        <v>146</v>
-      </c>
       <c r="Z20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>426</v>
@@ -2987,31 +2987,31 @@
         <v>1988</v>
       </c>
       <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" t="s">
-        <v>239</v>
-      </c>
-      <c r="O21">
+      <c r="M21" t="s">
+        <v>238</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>18</v>
       </c>
       <c r="S21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -3026,13 +3026,13 @@
         <v>70</v>
       </c>
       <c r="X21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>573</v>
@@ -3055,34 +3055,34 @@
         <v>2558</v>
       </c>
       <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
         <v>53</v>
       </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
         <v>19</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
+        <v>239</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>240</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
       </c>
       <c r="R22" s="1">
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>662</v>
       </c>
       <c r="X22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y22" t="s">
         <v>148</v>
       </c>
-      <c r="Y22" t="s">
-        <v>149</v>
-      </c>
       <c r="Z22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>262</v>
@@ -3126,31 +3126,31 @@
         <v>1952</v>
       </c>
       <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
         <v>55</v>
       </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
         <v>19</v>
       </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" t="s">
-        <v>239</v>
-      </c>
-      <c r="O23">
+      <c r="M23" t="s">
+        <v>238</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="R23">
         <v>19</v>
       </c>
       <c r="S23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>1952</v>
       </c>
       <c r="X23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" t="s">
         <v>55</v>
       </c>
-      <c r="Y23" t="s">
-        <v>56</v>
-      </c>
       <c r="Z23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -3194,37 +3194,37 @@
         <v>154</v>
       </c>
       <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
         <v>57</v>
       </c>
-      <c r="H24" t="s">
-        <v>58</v>
-      </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
         <v>19</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
+        <v>238</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" t="s">
-        <v>239</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
       </c>
       <c r="R24">
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3239,13 +3239,13 @@
         <v>154</v>
       </c>
       <c r="X24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y24" t="s">
         <v>57</v>
       </c>
-      <c r="Y24" t="s">
-        <v>58</v>
-      </c>
       <c r="Z24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -3256,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>137</v>
@@ -3268,37 +3268,37 @@
         <v>894</v>
       </c>
       <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
-        <v>61</v>
-      </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>19</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" t="s">
-        <v>239</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>132</v>
       </c>
       <c r="X25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y25" t="s">
         <v>168</v>
       </c>
-      <c r="Y25" t="s">
-        <v>169</v>
-      </c>
       <c r="Z25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>344</v>
@@ -3342,37 +3342,37 @@
         <v>4284</v>
       </c>
       <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
         <v>62</v>
       </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
       <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
         <v>17</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>19</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>20</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>239</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>2510</v>
       </c>
       <c r="X26" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y26" t="s">
         <v>170</v>
       </c>
-      <c r="Y26" t="s">
-        <v>171</v>
-      </c>
       <c r="Z26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3401,28 +3401,28 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>239</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R27" s="1">
         <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U27">
         <v>180</v>
@@ -3434,13 +3434,13 @@
         <v>2518</v>
       </c>
       <c r="X27" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y27" t="s">
         <v>172</v>
       </c>
-      <c r="Y27" t="s">
-        <v>173</v>
-      </c>
       <c r="Z27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>77</v>
@@ -3463,28 +3463,28 @@
         <v>1200</v>
       </c>
       <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
         <v>64</v>
       </c>
-      <c r="H28" t="s">
-        <v>65</v>
-      </c>
       <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
         <v>13</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" t="s">
-        <v>240</v>
-      </c>
-      <c r="O28">
+      <c r="M28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N28">
         <v>0</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>740</v>
       </c>
       <c r="X28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3516,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>366</v>
@@ -3528,31 +3528,31 @@
         <v>3088</v>
       </c>
       <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
         <v>66</v>
       </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
         <v>18</v>
       </c>
-      <c r="K29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" t="s">
-        <v>240</v>
-      </c>
-      <c r="O29">
+      <c r="M29" t="s">
+        <v>239</v>
+      </c>
+      <c r="N29">
         <v>0</v>
       </c>
       <c r="R29">
         <v>4</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3567,13 +3567,13 @@
         <v>3088</v>
       </c>
       <c r="X29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y29" t="s">
         <v>66</v>
       </c>
-      <c r="Y29" t="s">
-        <v>67</v>
-      </c>
       <c r="Z29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>110</v>
@@ -3596,37 +3596,37 @@
         <v>2020</v>
       </c>
       <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
       <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>238</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>13</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" t="s">
-        <v>239</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>2020</v>
       </c>
       <c r="X30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" t="s">
         <v>68</v>
       </c>
-      <c r="Y30" t="s">
-        <v>69</v>
-      </c>
       <c r="Z30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>47</v>
@@ -3670,31 +3670,31 @@
         <v>1110</v>
       </c>
       <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
         <v>70</v>
       </c>
-      <c r="H31" t="s">
-        <v>71</v>
-      </c>
       <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
         <v>13</v>
       </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" t="s">
-        <v>239</v>
-      </c>
-      <c r="O31">
+      <c r="M31" t="s">
+        <v>238</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="R31">
         <v>7</v>
       </c>
       <c r="S31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>336</v>
       </c>
       <c r="X31" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y31" t="s">
         <v>183</v>
       </c>
-      <c r="Y31" t="s">
-        <v>184</v>
-      </c>
       <c r="Z31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>77</v>
@@ -3738,37 +3738,37 @@
         <v>822</v>
       </c>
       <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
         <v>72</v>
       </c>
-      <c r="H32" t="s">
-        <v>73</v>
-      </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
         <v>19</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>20</v>
-      </c>
-      <c r="M32" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" t="s">
-        <v>239</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>8</v>
       </c>
       <c r="S32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -3783,13 +3783,13 @@
         <v>822</v>
       </c>
       <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
         <v>72</v>
       </c>
-      <c r="Y32" t="s">
-        <v>73</v>
-      </c>
       <c r="Z32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3797,31 +3797,31 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
         <v>13</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" t="s">
-        <v>241</v>
-      </c>
-      <c r="O33">
+      <c r="M33" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>8</v>
       </c>
       <c r="S33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U33">
         <v>143</v>
@@ -3833,13 +3833,13 @@
         <v>1430</v>
       </c>
       <c r="X33" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y33" t="s">
         <v>187</v>
       </c>
-      <c r="Y33" t="s">
-        <v>188</v>
-      </c>
       <c r="Z33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>331</v>
@@ -3862,37 +3862,37 @@
         <v>1940</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>19</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>238</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>20</v>
       </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" t="s">
-        <v>239</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
       <c r="R34" s="2">
         <v>9</v>
       </c>
       <c r="S34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>3948</v>
       </c>
       <c r="X34" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y34" t="s">
         <v>194</v>
       </c>
-      <c r="Y34" t="s">
-        <v>195</v>
-      </c>
       <c r="Z34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <v>85</v>
@@ -3936,34 +3936,34 @@
         <v>1094</v>
       </c>
       <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
         <v>75</v>
       </c>
-      <c r="H35" t="s">
-        <v>76</v>
-      </c>
       <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>19</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
+        <v>240</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>20</v>
-      </c>
-      <c r="M35" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
       </c>
       <c r="R35">
         <v>10</v>
       </c>
       <c r="S35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3978,13 +3978,13 @@
         <v>1094</v>
       </c>
       <c r="X35" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s">
         <v>75</v>
       </c>
-      <c r="Y35" t="s">
-        <v>76</v>
-      </c>
       <c r="Z35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3995,7 +3995,7 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>602</v>
@@ -4007,31 +4007,31 @@
         <v>5162</v>
       </c>
       <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
         <v>77</v>
       </c>
-      <c r="H36" t="s">
-        <v>78</v>
-      </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" t="s">
-        <v>240</v>
-      </c>
-      <c r="O36">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
+        <v>239</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
       <c r="R36">
         <v>11</v>
       </c>
       <c r="S36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U36">
         <v>602</v>
@@ -4043,13 +4043,13 @@
         <v>5162</v>
       </c>
       <c r="X36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s">
         <v>77</v>
       </c>
-      <c r="Y36" t="s">
-        <v>78</v>
-      </c>
       <c r="Z36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>267</v>
@@ -4072,40 +4072,40 @@
         <v>2996</v>
       </c>
       <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
         <v>79</v>
       </c>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
       <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>13</v>
-      </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N37" t="s">
-        <v>239</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
       </c>
       <c r="R37">
         <v>12</v>
       </c>
       <c r="S37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U37">
         <v>267</v>
@@ -4117,13 +4117,13 @@
         <v>2996</v>
       </c>
       <c r="X37" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s">
         <v>79</v>
       </c>
-      <c r="Y37" t="s">
-        <v>80</v>
-      </c>
       <c r="Z37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38">
         <v>481</v>
@@ -4146,37 +4146,37 @@
         <v>1806</v>
       </c>
       <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
         <v>81</v>
       </c>
-      <c r="H38" t="s">
-        <v>82</v>
-      </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>19</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>20</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" t="s">
-        <v>241</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
       </c>
       <c r="R38">
         <v>13</v>
       </c>
       <c r="S38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>478</v>
       </c>
       <c r="X38" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y38" t="s">
         <v>200</v>
       </c>
-      <c r="Y38" t="s">
-        <v>201</v>
-      </c>
       <c r="Z38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39">
         <v>354</v>
@@ -4220,31 +4220,31 @@
         <v>2948</v>
       </c>
       <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
         <v>83</v>
       </c>
-      <c r="H39" t="s">
-        <v>84</v>
-      </c>
       <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
         <v>13</v>
       </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" t="s">
-        <v>241</v>
-      </c>
-      <c r="O39">
+      <c r="M39" t="s">
+        <v>240</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
       <c r="R39">
         <v>14</v>
       </c>
       <c r="S39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -4259,13 +4259,13 @@
         <v>2948</v>
       </c>
       <c r="X39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y39" t="s">
         <v>83</v>
       </c>
-      <c r="Y39" t="s">
-        <v>84</v>
-      </c>
       <c r="Z39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40">
         <v>178</v>
@@ -4288,31 +4288,31 @@
         <v>1082</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
         <v>18</v>
       </c>
-      <c r="K40" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" t="s">
-        <v>241</v>
-      </c>
-      <c r="O40">
+      <c r="M40" t="s">
+        <v>240</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
       <c r="R40" s="1">
         <v>15</v>
       </c>
       <c r="S40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -4327,13 +4327,13 @@
         <v>1082</v>
       </c>
       <c r="X40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -4341,28 +4341,28 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
         <v>18</v>
       </c>
-      <c r="K41" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" t="s">
-        <v>250</v>
-      </c>
-      <c r="O41">
+      <c r="M41" t="s">
+        <v>248</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
       <c r="R41" s="1">
         <v>15</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T41">
         <v>2</v>
@@ -4377,13 +4377,13 @@
         <v>2672</v>
       </c>
       <c r="X41" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y41" t="s">
         <v>206</v>
       </c>
-      <c r="Y41" t="s">
-        <v>207</v>
-      </c>
       <c r="Z41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>191</v>
@@ -4406,34 +4406,34 @@
         <v>3006</v>
       </c>
       <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
         <v>86</v>
       </c>
-      <c r="H42" t="s">
-        <v>87</v>
-      </c>
       <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
         <v>13</v>
       </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" t="s">
-        <v>14</v>
-      </c>
-      <c r="N42" t="s">
-        <v>239</v>
-      </c>
-      <c r="O42">
+      <c r="M42" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
       <c r="R42">
         <v>16</v>
       </c>
       <c r="S42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -4448,13 +4448,13 @@
         <v>2800</v>
       </c>
       <c r="X42" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
-        <v>209</v>
-      </c>
       <c r="Z42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>126</v>
@@ -4477,37 +4477,37 @@
         <v>2040</v>
       </c>
       <c r="G43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s">
         <v>88</v>
       </c>
-      <c r="H43" t="s">
-        <v>89</v>
-      </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
         <v>19</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
         <v>20</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" t="s">
-        <v>239</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>17</v>
       </c>
       <c r="S43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -4522,13 +4522,13 @@
         <v>2040</v>
       </c>
       <c r="X43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y43" t="s">
         <v>88</v>
       </c>
-      <c r="Y43" t="s">
-        <v>89</v>
-      </c>
       <c r="Z43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4536,34 +4536,34 @@
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
         <v>19</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
+        <v>238</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
         <v>20</v>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" t="s">
-        <v>239</v>
-      </c>
-      <c r="O44">
-        <v>2</v>
       </c>
       <c r="R44" s="1">
         <v>17</v>
       </c>
       <c r="S44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -4578,13 +4578,13 @@
         <v>5092</v>
       </c>
       <c r="X44" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y44" t="s">
         <v>210</v>
       </c>
-      <c r="Y44" t="s">
-        <v>211</v>
-      </c>
       <c r="Z44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>294</v>
@@ -4607,37 +4607,37 @@
         <v>1700</v>
       </c>
       <c r="G45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s">
         <v>90</v>
       </c>
-      <c r="H45" t="s">
-        <v>91</v>
-      </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
         <v>18</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>19</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
+        <v>239</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>20</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" t="s">
-        <v>240</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
       </c>
       <c r="R45">
         <v>18</v>
       </c>
       <c r="S45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -4652,13 +4652,13 @@
         <v>288</v>
       </c>
       <c r="X45" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y45" t="s">
         <v>212</v>
       </c>
-      <c r="Y45" t="s">
-        <v>213</v>
-      </c>
       <c r="Z45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4669,7 +4669,7 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>660</v>
@@ -4681,31 +4681,31 @@
         <v>3772</v>
       </c>
       <c r="G46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s">
         <v>92</v>
       </c>
-      <c r="H46" t="s">
-        <v>93</v>
-      </c>
       <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
         <v>13</v>
       </c>
-      <c r="K46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N46" t="s">
-        <v>240</v>
-      </c>
-      <c r="O46">
+      <c r="M46" t="s">
+        <v>239</v>
+      </c>
+      <c r="N46">
         <v>0</v>
       </c>
       <c r="R46">
         <v>19</v>
       </c>
       <c r="S46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -4720,13 +4720,13 @@
         <v>748</v>
       </c>
       <c r="X46" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y46" t="s">
         <v>94</v>
       </c>
-      <c r="Y46" t="s">
-        <v>95</v>
-      </c>
       <c r="Z46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>91</v>
@@ -4749,37 +4749,37 @@
         <v>748</v>
       </c>
       <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
         <v>94</v>
       </c>
-      <c r="H47" t="s">
-        <v>95</v>
-      </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
         <v>19</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
+        <v>238</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>20</v>
-      </c>
-      <c r="M47" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" t="s">
-        <v>239</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
       </c>
       <c r="R47">
         <v>20</v>
       </c>
       <c r="S47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>3632</v>
       </c>
       <c r="X47" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y47" t="s">
         <v>96</v>
       </c>
-      <c r="Y47" t="s">
-        <v>97</v>
-      </c>
       <c r="Z47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>28</v>
@@ -4823,28 +4823,28 @@
         <v>3632</v>
       </c>
       <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
         <v>96</v>
       </c>
-      <c r="H48" t="s">
-        <v>97</v>
-      </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
         <v>19</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
+        <v>238</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4852,25 +4852,25 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>88</v>
@@ -4893,10 +4893,10 @@
         <v>1456</v>
       </c>
       <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
         <v>99</v>
-      </c>
-      <c r="H50" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4907,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>128</v>
@@ -4919,10 +4919,10 @@
         <v>2052</v>
       </c>
       <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
         <v>101</v>
-      </c>
-      <c r="H51" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>192</v>
@@ -4945,10 +4945,10 @@
         <v>2552</v>
       </c>
       <c r="G52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" t="s">
         <v>103</v>
-      </c>
-      <c r="H52" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>136</v>
@@ -4971,10 +4971,10 @@
         <v>1062</v>
       </c>
       <c r="G53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" t="s">
         <v>105</v>
-      </c>
-      <c r="H53" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>196</v>
@@ -4997,10 +4997,10 @@
         <v>1400</v>
       </c>
       <c r="G54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" t="s">
         <v>107</v>
-      </c>
-      <c r="H54" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>210</v>
@@ -5023,10 +5023,10 @@
         <v>1452</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5037,7 +5037,7 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>212</v>
@@ -5049,10 +5049,10 @@
         <v>1460</v>
       </c>
       <c r="G56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" t="s">
         <v>110</v>
-      </c>
-      <c r="H56" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5063,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>478</v>
@@ -5075,10 +5075,10 @@
         <v>3614</v>
       </c>
       <c r="G57" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" t="s">
         <v>112</v>
-      </c>
-      <c r="H57" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5089,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>109</v>
@@ -5101,10 +5101,10 @@
         <v>916</v>
       </c>
       <c r="G58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" t="s">
         <v>114</v>
-      </c>
-      <c r="H58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>222</v>
@@ -5127,10 +5127,10 @@
         <v>2486</v>
       </c>
       <c r="G59" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" t="s">
         <v>116</v>
-      </c>
-      <c r="H59" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>238</v>
@@ -5153,10 +5153,10 @@
         <v>2684</v>
       </c>
       <c r="G60" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" t="s">
         <v>118</v>
-      </c>
-      <c r="H60" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>321</v>
@@ -5179,10 +5179,10 @@
         <v>3490</v>
       </c>
       <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" t="s">
         <v>120</v>
-      </c>
-      <c r="H61" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -5193,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>187</v>
@@ -5205,10 +5205,10 @@
         <v>1248</v>
       </c>
       <c r="G62" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" t="s">
         <v>122</v>
-      </c>
-      <c r="H62" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>201</v>
@@ -5231,10 +5231,10 @@
         <v>970</v>
       </c>
       <c r="G63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" t="s">
         <v>124</v>
-      </c>
-      <c r="H63" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>414</v>
@@ -5257,10 +5257,10 @@
         <v>2160</v>
       </c>
       <c r="G64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" t="s">
         <v>126</v>
-      </c>
-      <c r="H64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,7 +5271,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>6</v>
@@ -5283,10 +5283,10 @@
         <v>106</v>
       </c>
       <c r="G65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
         <v>128</v>
-      </c>
-      <c r="H65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -5297,7 +5297,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>32</v>
@@ -5309,10 +5309,10 @@
         <v>206</v>
       </c>
       <c r="G66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H66" t="s">
         <v>130</v>
-      </c>
-      <c r="H66" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>51</v>
@@ -5335,10 +5335,10 @@
         <v>364</v>
       </c>
       <c r="G67" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" t="s">
         <v>132</v>
-      </c>
-      <c r="H67" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>76</v>
@@ -5361,10 +5361,10 @@
         <v>490</v>
       </c>
       <c r="G68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
         <v>134</v>
-      </c>
-      <c r="H68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>85</v>
@@ -5387,10 +5387,10 @@
         <v>498</v>
       </c>
       <c r="G69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" t="s">
         <v>136</v>
-      </c>
-      <c r="H69" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -5401,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>93</v>
@@ -5413,10 +5413,10 @@
         <v>740</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>102</v>
@@ -5439,10 +5439,10 @@
         <v>838</v>
       </c>
       <c r="G71" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" t="s">
         <v>139</v>
-      </c>
-      <c r="H71" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72">
         <v>124</v>
@@ -5465,10 +5465,10 @@
         <v>894</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -5479,7 +5479,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>158</v>
@@ -5491,10 +5491,10 @@
         <v>1094</v>
       </c>
       <c r="G73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>128</v>
@@ -5517,10 +5517,10 @@
         <v>1584</v>
       </c>
       <c r="G74" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" t="s">
         <v>143</v>
-      </c>
-      <c r="H74" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
         <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75">
         <v>513</v>
@@ -5543,10 +5543,10 @@
         <v>4486</v>
       </c>
       <c r="G75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" t="s">
         <v>145</v>
-      </c>
-      <c r="H75" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -5557,7 +5557,7 @@
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -5569,10 +5569,10 @@
         <v>70</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
         <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>135</v>
@@ -5595,10 +5595,10 @@
         <v>662</v>
       </c>
       <c r="G77" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" t="s">
         <v>148</v>
-      </c>
-      <c r="H77" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
         <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78">
         <v>153</v>
@@ -5621,10 +5621,10 @@
         <v>706</v>
       </c>
       <c r="G78" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" t="s">
         <v>150</v>
-      </c>
-      <c r="H78" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -5635,7 +5635,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>213</v>
@@ -5647,10 +5647,10 @@
         <v>1038</v>
       </c>
       <c r="G79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" t="s">
         <v>152</v>
-      </c>
-      <c r="H79" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80">
         <v>232</v>
@@ -5673,10 +5673,10 @@
         <v>1108</v>
       </c>
       <c r="G80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81">
         <v>357</v>
@@ -5699,10 +5699,10 @@
         <v>1724</v>
       </c>
       <c r="G81" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" t="s">
         <v>155</v>
-      </c>
-      <c r="H81" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,7 +5713,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82">
         <v>427</v>
@@ -5725,10 +5725,10 @@
         <v>2018</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,7 +5739,7 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83">
         <v>431</v>
@@ -5751,10 +5751,10 @@
         <v>2026</v>
       </c>
       <c r="G83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,7 +5765,7 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <v>437</v>
@@ -5777,10 +5777,10 @@
         <v>2068</v>
       </c>
       <c r="G84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,7 +5791,7 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85">
         <v>442</v>
@@ -5803,10 +5803,10 @@
         <v>2088</v>
       </c>
       <c r="G85" t="s">
+        <v>159</v>
+      </c>
+      <c r="H85" t="s">
         <v>160</v>
-      </c>
-      <c r="H85" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5817,7 +5817,7 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>452</v>
@@ -5829,10 +5829,10 @@
         <v>2114</v>
       </c>
       <c r="G86" t="s">
+        <v>161</v>
+      </c>
+      <c r="H86" t="s">
         <v>162</v>
-      </c>
-      <c r="H86" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5843,7 +5843,7 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87">
         <v>474</v>
@@ -5855,10 +5855,10 @@
         <v>2208</v>
       </c>
       <c r="G87" t="s">
+        <v>163</v>
+      </c>
+      <c r="H87" t="s">
         <v>164</v>
-      </c>
-      <c r="H87" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5869,7 +5869,7 @@
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>309</v>
@@ -5881,10 +5881,10 @@
         <v>2180</v>
       </c>
       <c r="G88" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" t="s">
         <v>166</v>
-      </c>
-      <c r="H88" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89">
         <v>19</v>
@@ -5907,10 +5907,10 @@
         <v>132</v>
       </c>
       <c r="G89" t="s">
+        <v>167</v>
+      </c>
+      <c r="H89" t="s">
         <v>168</v>
-      </c>
-      <c r="H89" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90">
         <v>179</v>
@@ -5933,10 +5933,10 @@
         <v>2510</v>
       </c>
       <c r="G90" t="s">
+        <v>169</v>
+      </c>
+      <c r="H90" t="s">
         <v>170</v>
-      </c>
-      <c r="H90" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D91">
         <v>180</v>
@@ -5959,10 +5959,10 @@
         <v>2518</v>
       </c>
       <c r="G91" t="s">
+        <v>171</v>
+      </c>
+      <c r="H91" t="s">
         <v>172</v>
-      </c>
-      <c r="H91" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -5973,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92">
         <v>272</v>
@@ -5985,10 +5985,10 @@
         <v>3814</v>
       </c>
       <c r="G92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" t="s">
         <v>174</v>
-      </c>
-      <c r="H92" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D93">
         <v>371</v>
@@ -6011,10 +6011,10 @@
         <v>4502</v>
       </c>
       <c r="G93" t="s">
+        <v>175</v>
+      </c>
+      <c r="H93" t="s">
         <v>176</v>
-      </c>
-      <c r="H93" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -6025,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94">
         <v>27</v>
@@ -6037,10 +6037,10 @@
         <v>740</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6051,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95">
         <v>71</v>
@@ -6063,10 +6063,10 @@
         <v>1170</v>
       </c>
       <c r="G95" t="s">
+        <v>178</v>
+      </c>
+      <c r="H95" t="s">
         <v>179</v>
-      </c>
-      <c r="H95" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6077,7 +6077,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D96">
         <v>258</v>
@@ -6089,10 +6089,10 @@
         <v>3872</v>
       </c>
       <c r="G96" t="s">
+        <v>180</v>
+      </c>
+      <c r="H96" t="s">
         <v>181</v>
-      </c>
-      <c r="H96" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D97">
         <v>28</v>
@@ -6115,10 +6115,10 @@
         <v>336</v>
       </c>
       <c r="G97" t="s">
+        <v>182</v>
+      </c>
+      <c r="H97" t="s">
         <v>183</v>
-      </c>
-      <c r="H97" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6129,7 +6129,7 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>62</v>
@@ -6141,10 +6141,10 @@
         <v>1586</v>
       </c>
       <c r="G98" t="s">
+        <v>184</v>
+      </c>
+      <c r="H98" t="s">
         <v>185</v>
-      </c>
-      <c r="H98" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -6155,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99">
         <v>143</v>
@@ -6167,10 +6167,10 @@
         <v>1430</v>
       </c>
       <c r="G99" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" t="s">
         <v>187</v>
-      </c>
-      <c r="H99" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100">
         <v>330</v>
@@ -6193,10 +6193,10 @@
         <v>1936</v>
       </c>
       <c r="G100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6207,7 +6207,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101">
         <v>451</v>
@@ -6219,10 +6219,10 @@
         <v>3012</v>
       </c>
       <c r="G101" t="s">
+        <v>189</v>
+      </c>
+      <c r="H101" t="s">
         <v>190</v>
-      </c>
-      <c r="H101" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6233,7 +6233,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D102">
         <v>452</v>
@@ -6245,10 +6245,10 @@
         <v>3020</v>
       </c>
       <c r="G102" t="s">
+        <v>191</v>
+      </c>
+      <c r="H102" t="s">
         <v>192</v>
-      </c>
-      <c r="H102" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6259,7 +6259,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103">
         <v>485</v>
@@ -6271,10 +6271,10 @@
         <v>3948</v>
       </c>
       <c r="G103" t="s">
+        <v>193</v>
+      </c>
+      <c r="H103" t="s">
         <v>194</v>
-      </c>
-      <c r="H103" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104">
         <v>785</v>
@@ -6297,10 +6297,10 @@
         <v>6356</v>
       </c>
       <c r="G104" t="s">
+        <v>195</v>
+      </c>
+      <c r="H104" t="s">
         <v>196</v>
-      </c>
-      <c r="H104" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -6311,7 +6311,7 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105">
         <v>809</v>
@@ -6323,10 +6323,10 @@
         <v>6510</v>
       </c>
       <c r="G105" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" t="s">
         <v>198</v>
-      </c>
-      <c r="H105" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106">
         <v>105</v>
@@ -6349,10 +6349,10 @@
         <v>478</v>
       </c>
       <c r="G106" t="s">
+        <v>199</v>
+      </c>
+      <c r="H106" t="s">
         <v>200</v>
-      </c>
-      <c r="H106" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6363,7 +6363,7 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107">
         <v>335</v>
@@ -6375,10 +6375,10 @@
         <v>1218</v>
       </c>
       <c r="G107" t="s">
+        <v>201</v>
+      </c>
+      <c r="H107" t="s">
         <v>202</v>
-      </c>
-      <c r="H107" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108">
         <v>367</v>
@@ -6401,10 +6401,10 @@
         <v>2308</v>
       </c>
       <c r="G108" t="s">
+        <v>203</v>
+      </c>
+      <c r="H108" t="s">
         <v>204</v>
-      </c>
-      <c r="H108" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109">
         <v>428</v>
@@ -6427,10 +6427,10 @@
         <v>2672</v>
       </c>
       <c r="G109" t="s">
+        <v>205</v>
+      </c>
+      <c r="H109" t="s">
         <v>206</v>
-      </c>
-      <c r="H109" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6441,7 +6441,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D110">
         <v>164</v>
@@ -6453,10 +6453,10 @@
         <v>2800</v>
       </c>
       <c r="G110" t="s">
+        <v>207</v>
+      </c>
+      <c r="H110" t="s">
         <v>208</v>
-      </c>
-      <c r="H110" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6467,7 +6467,7 @@
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111">
         <v>496</v>
@@ -6479,10 +6479,10 @@
         <v>5092</v>
       </c>
       <c r="G111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111" t="s">
         <v>210</v>
-      </c>
-      <c r="H111" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6493,7 +6493,7 @@
         <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112">
         <v>42</v>
@@ -6505,10 +6505,10 @@
         <v>288</v>
       </c>
       <c r="G112" t="s">
+        <v>211</v>
+      </c>
+      <c r="H112" t="s">
         <v>212</v>
-      </c>
-      <c r="H112" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6519,7 +6519,7 @@
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D113">
         <v>68</v>
@@ -6531,10 +6531,10 @@
         <v>456</v>
       </c>
       <c r="G113" t="s">
+        <v>213</v>
+      </c>
+      <c r="H113" t="s">
         <v>214</v>
-      </c>
-      <c r="H113" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
         <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114">
         <v>130</v>
@@ -6557,10 +6557,10 @@
         <v>822</v>
       </c>
       <c r="G114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -6571,7 +6571,7 @@
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D115">
         <v>141</v>
@@ -6583,10 +6583,10 @@
         <v>864</v>
       </c>
       <c r="G115" t="s">
+        <v>216</v>
+      </c>
+      <c r="H115" t="s">
         <v>217</v>
-      </c>
-      <c r="H115" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6597,7 +6597,7 @@
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D116">
         <v>212</v>
@@ -6609,10 +6609,10 @@
         <v>1190</v>
       </c>
       <c r="G116" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" t="s">
         <v>219</v>
-      </c>
-      <c r="H116" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6623,7 +6623,7 @@
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117">
         <v>214</v>
@@ -6635,10 +6635,10 @@
         <v>1250</v>
       </c>
       <c r="G117" t="s">
+        <v>220</v>
+      </c>
+      <c r="H117" t="s">
         <v>221</v>
-      </c>
-      <c r="H117" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>18</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D118">
         <v>231</v>
@@ -6661,10 +6661,10 @@
         <v>1444</v>
       </c>
       <c r="G118" t="s">
+        <v>222</v>
+      </c>
+      <c r="H118" t="s">
         <v>223</v>
-      </c>
-      <c r="H118" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6675,7 +6675,7 @@
         <v>18</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D119">
         <v>337</v>
@@ -6687,10 +6687,10 @@
         <v>1826</v>
       </c>
       <c r="G119" t="s">
+        <v>224</v>
+      </c>
+      <c r="H119" t="s">
         <v>225</v>
-      </c>
-      <c r="H119" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D120">
         <v>431</v>
@@ -6713,10 +6713,10 @@
         <v>2196</v>
       </c>
       <c r="G120" t="s">
+        <v>226</v>
+      </c>
+      <c r="H120" t="s">
         <v>227</v>
-      </c>
-      <c r="H120" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6727,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121">
         <v>519</v>
@@ -6739,10 +6739,10 @@
         <v>2538</v>
       </c>
       <c r="G121" t="s">
+        <v>228</v>
+      </c>
+      <c r="H121" t="s">
         <v>229</v>
-      </c>
-      <c r="H121" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122">
         <v>520</v>
@@ -6765,10 +6765,10 @@
         <v>2536</v>
       </c>
       <c r="G122" t="s">
+        <v>230</v>
+      </c>
+      <c r="H122" t="s">
         <v>231</v>
-      </c>
-      <c r="H122" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123">
         <v>795</v>
@@ -6791,10 +6791,10 @@
         <v>4720</v>
       </c>
       <c r="G123" t="s">
+        <v>232</v>
+      </c>
+      <c r="H123" t="s">
         <v>233</v>
-      </c>
-      <c r="H123" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6805,7 +6805,7 @@
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D124">
         <v>799</v>
@@ -6817,10 +6817,10 @@
         <v>4716</v>
       </c>
       <c r="G124" t="s">
+        <v>234</v>
+      </c>
+      <c r="H124" t="s">
         <v>235</v>
-      </c>
-      <c r="H124" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
